--- a/data/reports/W46_2025.xlsx
+++ b/data/reports/W46_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\RMIT_WORKS\TEAM\WIP\GIT\RMIT_WIP\data\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61655373-AA60-4384-B7F9-B6B424229E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B0E308-9B66-4837-AAF1-6507A5F851D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="733" yWindow="-118" windowWidth="32898" windowHeight="21181" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -352,9 +352,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -369,6 +366,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,7 +713,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -727,16 +727,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="52.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -757,320 +757,320 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="7" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:8" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:8" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:8" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:8" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:8" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:8" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:8" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:8" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:8" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:8" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:8" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:8" s="5" customFormat="1" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:8" s="5" customFormat="1" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>63</v>
       </c>
       <c r="F21" s="1"/>
@@ -1087,32 +1087,32 @@
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -1124,10 +1124,10 @@
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>64</v>
       </c>
     </row>
